--- a/casos_de_testes/Casos de Teste - Exercício 2.xlsx
+++ b/casos_de_testes/Casos de Teste - Exercício 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5748dcfc850e4fa7/Documentos/Teste QA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\course-creation-tests\casos_de_testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D6A0C858-0245-4A48-9486-39A8723E121C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46086A24-D39F-4420-8A60-76EE3EBD74FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBCE798-DE87-4959-87BA-549EEB8A4B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Teste" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Curso ativo</t>
   </si>
   <si>
-    <t>Curso com matrícula ativa</t>
-  </si>
-  <si>
     <t>O curso deve se tornar inativo e não deve aparecer para matrícula do aluno</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
 8. Verificar se a inclusão de nova aula persiste</t>
   </si>
   <si>
-    <t>Incluir nova aula</t>
-  </si>
-  <si>
     <t>Curso deve trazer nova aula incluída com sucesso</t>
   </si>
   <si>
@@ -184,15 +178,6 @@
     <t>Intercalar modalidade</t>
   </si>
   <si>
-    <t>Modal de informar dados de aula deverá ser atualizado conforme modalidade escolhida</t>
-  </si>
-  <si>
-    <t>Intercalar modalidade de curso e verificar atualização de modelo de aula</t>
-  </si>
-  <si>
-    <t>Modal par informar dados referente a aula do curso não é atualizado</t>
-  </si>
-  <si>
     <t>Falhou</t>
   </si>
   <si>
@@ -258,6 +243,21 @@
   </si>
   <si>
     <t>Evidências:</t>
+  </si>
+  <si>
+    <t>Curso existente com pelo menos uma aula cadastrada</t>
+  </si>
+  <si>
+    <t>O modal de edição da aula deve ser atualizado automaticamente conforme a modalidade selecionada</t>
+  </si>
+  <si>
+    <t>Modal da aula não foi atualizado após retornar para modalidade online</t>
+  </si>
+  <si>
+    <t>Curso ativo com pelo menos um aluno já matriculado</t>
+  </si>
+  <si>
+    <t>Curso ativo existente: incluir nova aula</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,11 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -910,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,25 +949,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -976,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -985,16 +984,16 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1005,22 +1004,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1028,22 +1027,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
@@ -1057,19 +1056,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>12</v>
@@ -1077,28 +1076,28 @@
     </row>
     <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1146,33 +1145,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA70B9D-B202-4340-9674-47F4D0DAF412}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="134" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="134" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -1192,7 +1190,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1210,7 +1208,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1242,27 +1240,27 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1294,27 +1292,27 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1332,7 +1330,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1350,7 +1348,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1368,7 +1366,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1386,7 +1384,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1404,7 +1402,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1422,7 +1420,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1454,27 +1452,27 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+    <row r="18" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1506,27 +1504,27 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1558,23 +1556,23 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
